--- a/Revisión exp-imp vs salidas-entradas.xlsx
+++ b/Revisión exp-imp vs salidas-entradas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34772CB-7F53-449A-8C48-959E6227F525}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA92C20B-0D1D-4498-908D-7E415CBE9BBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2820" windowWidth="15375" windowHeight="7875" xr2:uid="{123A68E7-97DC-4E40-A1B3-865077EA2EC9}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{123A68E7-97DC-4E40-A1B3-865077EA2EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="mes a mes" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="24">
   <si>
     <t>Año</t>
   </si>
@@ -189,7 +189,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -216,13 +219,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CAECCAF-152B-4148-870B-8CE78CDC6127}" name="Tabla1" displayName="Tabla1" ref="A1:D157" totalsRowShown="0">
-  <autoFilter ref="A1:D157" xr:uid="{CC52ADBA-68B7-4586-AD82-FB5E4B74B42B}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CAECCAF-152B-4148-870B-8CE78CDC6127}" name="Tabla1" displayName="Tabla1" ref="A1:E157" totalsRowShown="0">
+  <autoFilter ref="A1:E157" xr:uid="{CC52ADBA-68B7-4586-AD82-FB5E4B74B42B}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FB446861-4A6C-41C6-9A56-7F8F7DFC3CD0}" name="Año"/>
     <tableColumn id="2" xr3:uid="{2492F1BB-99C6-43E5-807B-49402A0F6830}" name="Mes"/>
     <tableColumn id="3" xr3:uid="{355CD641-81EF-4213-AD28-49335AF22CA0}" name="Tipo"/>
-    <tableColumn id="4" xr3:uid="{416F7EC1-442E-4FD3-B88F-F53CE54AED48}" name="Valor" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{416F7EC1-442E-4FD3-B88F-F53CE54AED48}" name="Valor" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D05BE643-980E-413B-8F18-D5A2947DD013}" name="Columna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -235,7 +239,7 @@
     <tableColumn id="1" xr3:uid="{C5BA6529-BFCF-494C-BFEF-E02DACBE3052}" name="Año"/>
     <tableColumn id="2" xr3:uid="{8CED66ED-7549-44A1-8AE4-5FBA5750160B}" name="Mes"/>
     <tableColumn id="3" xr3:uid="{3BC11DDD-01BA-495D-AB6E-B0F6C9F41FAD}" name="Tipo"/>
-    <tableColumn id="4" xr3:uid="{D614B5B0-976C-4C88-A161-AEE846FD9A1B}" name="Valor" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D614B5B0-976C-4C88-A161-AEE846FD9A1B}" name="Valor" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{7188F78C-F479-40F2-A272-314A1A3CAAB7}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -248,7 +252,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4A4F22C1-C694-4B1A-9591-769469577172}" name="Año"/>
     <tableColumn id="2" xr3:uid="{C182EEDA-191E-45EB-83BB-E2BC0946048D}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{29162511-4A72-4EEA-B1CC-14CAEB3863AB}" name="Valor" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{29162511-4A72-4EEA-B1CC-14CAEB3863AB}" name="Valor" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -260,7 +264,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ADD45F2B-7AAD-45DC-9884-FCB4EE397C28}" name="Año"/>
     <tableColumn id="2" xr3:uid="{8E6B23E3-6ED0-4268-B610-FD3E4C56C783}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{4CB23566-A2CC-4B45-B380-7BE1B79EB7C6}" name="Valor" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4CB23566-A2CC-4B45-B380-7BE1B79EB7C6}" name="Valor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1849AF8C-28E9-4905-BD54-61AA06ED5573}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +594,9 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2315,11 +2322,11 @@
         <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v>5662887133.4599972</v>
+        <v>5662887133.4599934</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="0"/>
-        <v>-445810.76000499725</v>
+        <v>-445810.76000881195</v>
       </c>
       <c r="G58">
         <v>2017</v>
@@ -2557,12 +2564,12 @@
       </c>
       <c r="D66" s="5">
         <f>SUM(D54:D65)</f>
-        <v>68139962436.360008</v>
+        <v>68139962436.360001</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6">
         <f t="shared" si="0"/>
-        <v>179131.74999237061</v>
+        <v>179131.74998474121</v>
       </c>
       <c r="G66" s="4">
         <v>2017</v>
@@ -2985,11 +2992,11 @@
         <v>20</v>
       </c>
       <c r="D80" s="1">
-        <v>7470317886.4900064</v>
+        <v>7519490815.8300066</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="1"/>
-        <v>-49172929.339993477</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>2018</v>
@@ -3015,11 +3022,11 @@
         <v>20</v>
       </c>
       <c r="D81" s="1">
-        <v>5801267496.6100149</v>
+        <v>5848039799.9500151</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="1"/>
-        <v>-46772303.339987755</v>
+        <v>1.239776611328125E-5</v>
       </c>
       <c r="G81">
         <v>2018</v>
@@ -3045,11 +3052,11 @@
         <v>20</v>
       </c>
       <c r="D82" s="1">
-        <v>6154121648.6200047</v>
+        <v>6222657212.3600044</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="1"/>
-        <v>-68535563.739998817</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>2018</v>
@@ -3075,11 +3082,11 @@
         <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>6502828377.6399899</v>
+        <v>6557258041.5799894</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="1"/>
-        <v>-54429663.94000721</v>
+        <v>-7.62939453125E-6</v>
       </c>
       <c r="G83">
         <v>2018</v>
@@ -3105,11 +3112,11 @@
         <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>6491703329.3499899</v>
+        <v>6537811212.1299896</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="1"/>
-        <v>-46107882.78000927</v>
+        <v>-9.5367431640625E-6</v>
       </c>
       <c r="G84">
         <v>2018</v>
@@ -3135,11 +3142,11 @@
         <v>20</v>
       </c>
       <c r="D85" s="1">
-        <v>6375384846.6499958</v>
+        <v>6427500684.739996</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="1"/>
-        <v>-52115838.090008736</v>
+        <v>-8.58306884765625E-6</v>
       </c>
       <c r="G85">
         <v>2018</v>
@@ -3165,11 +3172,11 @@
         <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>6799645845.3099928</v>
+        <v>6847755357.609993</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="1"/>
-        <v>-48109512.300005913</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>2018</v>
@@ -3195,11 +3202,11 @@
         <v>20</v>
       </c>
       <c r="D87" s="1">
-        <v>6889415569.1000042</v>
+        <v>6919499573.9300041</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="1"/>
-        <v>-30084004.829995155</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>2018</v>
@@ -3225,11 +3232,11 @@
         <v>20</v>
       </c>
       <c r="D88" s="1">
-        <v>4667591791.2499924</v>
+        <v>4728363020.1399908</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="1"/>
-        <v>-60771228.890007973</v>
+        <v>-9.5367431640625E-6</v>
       </c>
       <c r="G88">
         <v>2018</v>
@@ -3255,11 +3262,11 @@
         <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>6631292250.9300117</v>
+        <v>6694648879.9800119</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="1"/>
-        <v>-63356629.049985886</v>
+        <v>1.430511474609375E-5</v>
       </c>
       <c r="G89">
         <v>2018</v>
@@ -3285,11 +3292,11 @@
         <v>20</v>
       </c>
       <c r="D90" s="1">
-        <v>5942006432.1399975</v>
+        <v>6004502326.9999971</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="1"/>
-        <v>-62495894.860004425</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>2018</v>
@@ -3315,11 +3322,11 @@
         <v>20</v>
       </c>
       <c r="D91" s="1">
-        <v>5788385223.1000147</v>
+        <v>5841633864.7000151</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="1"/>
-        <v>-53248641.599984169</v>
+        <v>1.621246337890625E-5</v>
       </c>
       <c r="G91">
         <v>2018</v>
@@ -3346,12 +3353,12 @@
       </c>
       <c r="D92" s="5">
         <f>SUM(D80:D91)</f>
-        <v>75513960697.190018</v>
+        <v>76149160789.950012</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6">
         <f t="shared" si="1"/>
-        <v>-635200092.75999451</v>
+        <v>0</v>
       </c>
       <c r="G92" s="4">
         <v>2018</v>
@@ -3771,11 +3778,11 @@
         <v>20</v>
       </c>
       <c r="D106" s="1">
-        <v>8170326108.2999916</v>
+        <v>8269087669.6699915</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="1"/>
-        <v>-98761561.370009422</v>
+        <v>-9.5367431640625E-6</v>
       </c>
       <c r="G106">
         <v>2019</v>
@@ -3801,11 +3808,11 @@
         <v>20</v>
       </c>
       <c r="D107" s="1">
-        <v>5078120741.46</v>
+        <v>5126991459.4099998</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="1"/>
-        <v>-48870717.950000763</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>2019</v>
@@ -3831,11 +3838,11 @@
         <v>20</v>
       </c>
       <c r="D108" s="1">
-        <v>6148917361.2800083</v>
+        <v>6206761607.560008</v>
       </c>
       <c r="F108" s="3">
         <f t="shared" si="1"/>
-        <v>-57844246.27999115</v>
+        <v>8.58306884765625E-6</v>
       </c>
       <c r="G108">
         <v>2019</v>
@@ -3861,11 +3868,11 @@
         <v>20</v>
       </c>
       <c r="D109" s="1">
-        <v>6311739965.3700037</v>
+        <v>6383844635.6900034</v>
       </c>
       <c r="F109" s="3">
         <f t="shared" si="1"/>
-        <v>-72104670.319994926</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>2019</v>
@@ -3891,11 +3898,11 @@
         <v>20</v>
       </c>
       <c r="D110" s="1">
-        <v>6216971245.029995</v>
+        <v>6246435607.5999956</v>
       </c>
       <c r="F110" s="3">
         <f t="shared" si="1"/>
-        <v>-29464362.570007324</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>2019</v>
@@ -3921,11 +3928,11 @@
         <v>20</v>
       </c>
       <c r="D111" s="1">
-        <v>5575620448.29</v>
+        <v>5626650882.4199991</v>
       </c>
       <c r="F111" s="3">
         <f t="shared" si="1"/>
-        <v>-51030434.129997253</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>2019</v>
@@ -3951,11 +3958,11 @@
         <v>20</v>
       </c>
       <c r="D112" s="1">
-        <v>6255598059.5999899</v>
+        <v>6315535390.7999897</v>
       </c>
       <c r="F112" s="3">
         <f t="shared" si="1"/>
-        <v>-59937331.200011253</v>
+        <v>-1.1444091796875E-5</v>
       </c>
       <c r="G112">
         <v>2019</v>
@@ -3981,11 +3988,11 @@
         <v>20</v>
       </c>
       <c r="D113" s="1">
-        <v>5643150444.4800062</v>
+        <v>5651563194.1400061</v>
       </c>
       <c r="F113" s="3">
         <f t="shared" si="1"/>
-        <v>-8412749.6599931717</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>2019</v>
@@ -4011,11 +4018,11 @@
         <v>20</v>
       </c>
       <c r="D114" s="1">
-        <v>4809132869.1100111</v>
+        <v>4884802852.3200121</v>
       </c>
       <c r="F114" s="3">
         <f t="shared" si="1"/>
-        <v>-75669983.209988594</v>
+        <v>1.239776611328125E-5</v>
       </c>
       <c r="G114">
         <v>2019</v>
@@ -4041,11 +4048,11 @@
         <v>20</v>
       </c>
       <c r="D115" s="1">
-        <v>5692867755.5899878</v>
+        <v>5728696841.6499882</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="1"/>
-        <v>-35829086.060013771</v>
+        <v>-1.33514404296875E-5</v>
       </c>
       <c r="G115">
         <v>2019</v>
@@ -4071,11 +4078,11 @@
         <v>20</v>
       </c>
       <c r="D116" s="1">
-        <v>4880795141.8699942</v>
+        <v>4928090217.0599937</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="1"/>
-        <v>-47294975.190009117</v>
+        <v>99.999990463256836</v>
       </c>
       <c r="G116">
         <v>2019</v>
@@ -4101,11 +4108,11 @@
         <v>20</v>
       </c>
       <c r="D117" s="1">
-        <v>5763693373.8900023</v>
+        <v>5815776731.0300026</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="1"/>
-        <v>-51340252.089998245</v>
+        <v>743105.05000209808</v>
       </c>
       <c r="G117">
         <v>2019</v>
@@ -4132,12 +4139,12 @@
       </c>
       <c r="D118" s="5">
         <f>SUM(D106:D117)</f>
-        <v>70546933514.269989</v>
+        <v>71184237089.349991</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="6">
         <f t="shared" si="1"/>
-        <v>-636560370.03001404</v>
+        <v>743205.04998779297</v>
       </c>
       <c r="G118" s="4">
         <v>2019</v>
@@ -4164,11 +4171,11 @@
         <v>4</v>
       </c>
       <c r="D119" s="1">
-        <v>5349541531.8100023</v>
+        <v>5450866261.970006</v>
       </c>
       <c r="F119" s="3">
         <f t="shared" si="1"/>
-        <v>-101324730.15999794</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>2019</v>
@@ -4194,11 +4201,11 @@
         <v>4</v>
       </c>
       <c r="D120" s="1">
-        <v>5156934109.6100121</v>
+        <v>5257941671.4500132</v>
       </c>
       <c r="F120" s="3">
         <f t="shared" si="1"/>
-        <v>-101007561.83999062</v>
+        <v>1.049041748046875E-5</v>
       </c>
       <c r="G120">
         <v>2019</v>
@@ -4224,11 +4231,11 @@
         <v>4</v>
       </c>
       <c r="D121" s="1">
-        <v>5482540722.0100107</v>
+        <v>5547497099.7200098</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="1"/>
-        <v>-64956377.709982872</v>
+        <v>1.621246337890625E-5</v>
       </c>
       <c r="G121">
         <v>2019</v>
@@ -4254,11 +4261,11 @@
         <v>4</v>
       </c>
       <c r="D122" s="1">
-        <v>5209283200.8899927</v>
+        <v>5250802247.7899914</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="1"/>
-        <v>-41519046.900008202</v>
+        <v>-9.5367431640625E-6</v>
       </c>
       <c r="G122">
         <v>2019</v>
@@ -4284,11 +4291,11 @@
         <v>4</v>
       </c>
       <c r="D123" s="1">
-        <v>5871156288.8600025</v>
+        <v>5929120384.9400005</v>
       </c>
       <c r="F123" s="3">
         <f t="shared" si="1"/>
-        <v>-57964096.080004692</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>2019</v>
@@ -4314,11 +4321,11 @@
         <v>4</v>
       </c>
       <c r="D124" s="1">
-        <v>4843426571.0800066</v>
+        <v>4932406706.8200073</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="1"/>
-        <v>-88980135.73999691</v>
+        <v>0</v>
       </c>
       <c r="G124">
         <v>2019</v>
@@ -4344,11 +4351,11 @@
         <v>4</v>
       </c>
       <c r="D125" s="1">
-        <v>5670218828.7099886</v>
+        <v>5755324686.4099922</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="1"/>
-        <v>-85105857.7000103</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>2019</v>
@@ -4374,11 +4381,11 @@
         <v>4</v>
       </c>
       <c r="D126" s="1">
-        <v>5645340038.9499979</v>
+        <v>5735922975.2199993</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="1"/>
-        <v>-90582936.269997597</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <v>2019</v>
@@ -4404,11 +4411,11 @@
         <v>4</v>
       </c>
       <c r="D127" s="1">
-        <v>5099132883.8200016</v>
+        <v>5169705152.5499973</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="1"/>
-        <v>-70572268.729999542</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <v>2019</v>
@@ -4434,11 +4441,11 @@
         <v>4</v>
       </c>
       <c r="D128" s="1">
-        <v>5451656665.3999949</v>
+        <v>5508785110.3299952</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="1"/>
-        <v>-57128444.929995537</v>
+        <v>0</v>
       </c>
       <c r="G128">
         <v>2019</v>
@@ -4464,11 +4471,11 @@
         <v>4</v>
       </c>
       <c r="D129" s="1">
-        <v>5077311154.4400034</v>
+        <v>5144751866.6000061</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="1"/>
-        <v>-67440712.15999794</v>
+        <v>0</v>
       </c>
       <c r="G129">
         <v>2019</v>
@@ -4494,11 +4501,11 @@
         <v>4</v>
       </c>
       <c r="D130" s="1">
-        <v>4857503595.0999985</v>
+        <v>4942219839.0999918</v>
       </c>
       <c r="F130" s="3">
         <f t="shared" si="1"/>
-        <v>-84716243.999995232</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>2019</v>
@@ -4525,12 +4532,12 @@
       </c>
       <c r="D131" s="5">
         <f>SUM(D119:D130)</f>
-        <v>63714045590.68</v>
+        <v>64625344002.900009</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="6">
         <f t="shared" ref="F131:F157" si="2">D131-J131</f>
-        <v>-911298412.21998596</v>
+        <v>0</v>
       </c>
       <c r="G131" s="4">
         <v>2019</v>
@@ -4557,11 +4564,11 @@
         <v>20</v>
       </c>
       <c r="D132" s="1">
-        <v>7033090133.1700106</v>
+        <v>7327583632.6600037</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" si="2"/>
-        <v>-294493499.48998737</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>2020</v>
@@ -4587,11 +4594,11 @@
         <v>20</v>
       </c>
       <c r="D133" s="1">
-        <v>4554850396.7400017</v>
+        <v>4619026151.8299894</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="2"/>
-        <v>-64175755.089998245</v>
+        <v>-1.049041748046875E-5</v>
       </c>
       <c r="G133">
         <v>2020</v>
@@ -4617,11 +4624,11 @@
         <v>20</v>
       </c>
       <c r="D134" s="1">
-        <v>5727579063.8499994</v>
+        <v>5775704236.119997</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="2"/>
-        <v>-48125172.270000458</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <v>2020</v>
@@ -4647,11 +4654,11 @@
         <v>20</v>
       </c>
       <c r="D135" s="1">
-        <v>5920738017.6000051</v>
+        <v>5971125348.4700041</v>
       </c>
       <c r="F135" s="3">
         <f t="shared" si="2"/>
-        <v>-50387330.86999321</v>
+        <v>0</v>
       </c>
       <c r="G135">
         <v>2020</v>
@@ -4677,11 +4684,11 @@
         <v>20</v>
       </c>
       <c r="D136" s="1">
-        <v>5165205495.3199978</v>
+        <v>5174997663.2399979</v>
       </c>
       <c r="F136" s="3">
         <f t="shared" si="2"/>
-        <v>-9792167.92000103</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>2020</v>
@@ -4707,11 +4714,11 @@
         <v>20</v>
       </c>
       <c r="D137" s="1">
-        <v>5745713328.4299889</v>
+        <v>5754316394.3900032</v>
       </c>
       <c r="F137" s="3">
         <f t="shared" si="2"/>
-        <v>-8603065.9600095749</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>2020</v>
@@ -4737,11 +4744,11 @@
         <v>20</v>
       </c>
       <c r="D138" s="1">
-        <v>5748029247.4200153</v>
+        <v>5758522482.3800049</v>
       </c>
       <c r="F138" s="3">
         <f t="shared" si="2"/>
-        <v>-10493234.959983826</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>2020</v>
@@ -4767,11 +4774,11 @@
         <v>20</v>
       </c>
       <c r="D139" s="1">
-        <v>5439706937.3299961</v>
+        <v>5450303410.8599911</v>
       </c>
       <c r="F139" s="3">
         <f t="shared" si="2"/>
-        <v>-10596473.530004501</v>
+        <v>-9.5367431640625E-6</v>
       </c>
       <c r="G139">
         <v>2020</v>
@@ -4797,11 +4804,11 @@
         <v>20</v>
       </c>
       <c r="D140" s="1">
-        <v>4989946021.7699862</v>
+        <v>5000418187.2799988</v>
       </c>
       <c r="F140" s="3">
         <f t="shared" si="2"/>
-        <v>-10472165.51001358</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <v>2020</v>
@@ -4827,11 +4834,11 @@
         <v>20</v>
       </c>
       <c r="D141" s="1">
-        <v>5933722848.9299841</v>
+        <v>5945044223.1699905</v>
       </c>
       <c r="F141" s="3">
         <f t="shared" si="2"/>
-        <v>-11321374.24001503</v>
+        <v>-8.58306884765625E-6</v>
       </c>
       <c r="G141">
         <v>2020</v>
@@ -4857,11 +4864,11 @@
         <v>20</v>
       </c>
       <c r="D142" s="1">
-        <v>5450297685.2799921</v>
+        <v>5467171067.430007</v>
       </c>
       <c r="F142" s="3">
         <f t="shared" si="2"/>
-        <v>-16873382.150004387</v>
+        <v>1.049041748046875E-5</v>
       </c>
       <c r="G142">
         <v>2020</v>
@@ -4887,11 +4894,11 @@
         <v>20</v>
       </c>
       <c r="D143" s="1">
-        <v>6642106177.9499998</v>
+        <v>6658784084.5000067</v>
       </c>
       <c r="F143" s="3">
         <f t="shared" si="2"/>
-        <v>-16677906.550000191</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>2020</v>
@@ -4918,12 +4925,12 @@
       </c>
       <c r="D144" s="5">
         <f>SUM(D132:D143)</f>
-        <v>68350985353.789978</v>
+        <v>68902996882.330002</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="6">
         <f t="shared" si="2"/>
-        <v>-552011528.54000854</v>
+        <v>0</v>
       </c>
       <c r="G144" s="4">
         <v>2020</v>
